--- a/profiles/BGD/results/BGD_ind_summary.xlsx
+++ b/profiles/BGD/results/BGD_ind_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve">Group</t>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">2010-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Countries with similar GDP pc</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t xml:space="preserve">2011-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food exports (% of merchandise exports)</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t xml:space="preserve">2006-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">FDI inflows to Agriculture, Forestry and Fishing</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t xml:space="preserve">2009-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Urban population growth (annual %)</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t xml:space="preserve">2012-2021</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">Retail value of packaged food sales per capita USD</t>
   </si>
   <si>
@@ -206,9 +191,6 @@
     <t xml:space="preserve">2008-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
@@ -218,13 +200,13 @@
     <t xml:space="preserve">2007-2016</t>
   </si>
   <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Literacy rate, adult total (% of people ages 15 and above)</t>
   </si>
   <si>
     <t xml:space="preserve">Indicator21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-2018</t>
   </si>
   <si>
     <t xml:space="preserve">Urban population (% of total population)</t>
@@ -647,10 +629,10 @@
         <v>150.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -661,13 +643,13 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="I2" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
         <v>34</v>
@@ -676,10 +658,10 @@
         <v>41.7</v>
       </c>
       <c r="D3" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>5.4</v>
+        <v>9.4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -690,13 +672,13 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
+      <c r="I3" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>31.5</v>
@@ -705,10 +687,10 @@
         <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6</v>
+        <v>14.3</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -719,13 +701,13 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
+      <c r="I4" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>57.1</v>
@@ -734,10 +716,10 @@
         <v>61.6</v>
       </c>
       <c r="D5" t="n">
-        <v>72399.3</v>
+        <v>57282.7</v>
       </c>
       <c r="E5" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -748,8 +730,8 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
+      <c r="I5" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="6">
@@ -763,27 +745,27 @@
         <v>1.1</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7</v>
+        <v>20.8</v>
       </c>
       <c r="E6" t="n">
         <v>20.8</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+      <c r="I6" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>0.7</v>
@@ -792,27 +774,27 @@
         <v>1.1</v>
       </c>
       <c r="D7" t="n">
-        <v>7.5</v>
+        <v>12.6</v>
       </c>
       <c r="E7" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
+      <c r="I7" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>0.5</v>
@@ -821,27 +803,27 @@
         <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>2.4</v>
+        <v>9.6</v>
       </c>
       <c r="E8" t="n">
-        <v>6.7</v>
+        <v>10.8</v>
       </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
+      <c r="I8" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>0.8</v>
@@ -850,22 +832,22 @@
         <v>1.5</v>
       </c>
       <c r="D9" t="n">
-        <v>13.4</v>
+        <v>16.2</v>
       </c>
       <c r="E9" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
+      <c r="I9" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="10">
@@ -882,24 +864,24 @@
         <v>-5.3</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.4</v>
+        <v>-12.2</v>
       </c>
       <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
+      <c r="I10" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
         <v>32.6</v>
@@ -908,27 +890,27 @@
         <v>25.7</v>
       </c>
       <c r="D11" t="n">
-        <v>13.3</v>
+        <v>8.5</v>
       </c>
       <c r="E11" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
+      <c r="I11" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
         <v>10.7</v>
@@ -937,27 +919,27 @@
         <v>23.4</v>
       </c>
       <c r="D12" t="n">
-        <v>16.2</v>
+        <v>17.3</v>
       </c>
       <c r="E12" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
+      <c r="I12" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
         <v>23.6</v>
@@ -966,22 +948,22 @@
         <v>26.9</v>
       </c>
       <c r="D13" t="n">
-        <v>414.8</v>
+        <v>296.1</v>
       </c>
       <c r="E13" t="n">
-        <v>15.6</v>
+        <v>24.7</v>
       </c>
       <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
+      <c r="I13" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="14">
@@ -995,27 +977,27 @@
         <v>0.5</v>
       </c>
       <c r="D14" t="n">
-        <v>69.3</v>
+        <v>74.1</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.2</v>
+        <v>-23.8</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>7.2</v>
@@ -1024,27 +1006,27 @@
         <v>0.4</v>
       </c>
       <c r="D15" t="n">
-        <v>5262.7</v>
+        <v>3903.1</v>
       </c>
       <c r="E15" t="n">
-        <v>5204.6</v>
+        <v>-21.4</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="e">
         <v>#NUM!</v>
@@ -1053,27 +1035,27 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>36.9</v>
+        <v>30.7</v>
       </c>
       <c r="E16" t="n">
-        <v>36.9</v>
+        <v>-5.9</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>2.2</v>
@@ -1082,22 +1064,22 @@
         <v>2.8</v>
       </c>
       <c r="D17" t="n">
-        <v>293.7</v>
+        <v>7.1</v>
       </c>
       <c r="E17" t="n">
-        <v>253.1</v>
+        <v>-132.8</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="18">
@@ -1111,27 +1093,27 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="n">
         <v>3.4</v>
@@ -1146,21 +1128,21 @@
         <v>-1.2</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="n">
         <v>2.3</v>
@@ -1169,27 +1151,27 @@
         <v>2.6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="E20" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -1198,22 +1180,22 @@
         <v>1.8</v>
       </c>
       <c r="D21" t="n">
-        <v>-32</v>
+        <v>-5.3</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="22">
@@ -1227,27 +1209,27 @@
         <v>2.5</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.4</v>
+        <v>-3.7</v>
       </c>
       <c r="E22" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
         <v>2.9</v>
@@ -1256,27 +1238,27 @@
         <v>-5.4</v>
       </c>
       <c r="D23" t="n">
-        <v>-90.7</v>
+        <v>-93.7</v>
       </c>
       <c r="E23" t="n">
-        <v>-4</v>
+        <v>12.7</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
         <v>5.2</v>
@@ -1285,27 +1267,27 @@
         <v>-5.2</v>
       </c>
       <c r="D24" t="n">
-        <v>-56.8</v>
+        <v>-59.4</v>
       </c>
       <c r="E24" t="n">
-        <v>-14.5</v>
+        <v>-11.6</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="n">
         <v>2.2</v>
@@ -1314,22 +1296,22 @@
         <v>-5.8</v>
       </c>
       <c r="D25" t="n">
-        <v>-40.6</v>
+        <v>-41.1</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.2</v>
+        <v>-17.3</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="26">
@@ -1343,27 +1325,27 @@
         <v>14.9</v>
       </c>
       <c r="D26" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="E26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="n">
         <v>0.1</v>
@@ -1372,27 +1354,27 @@
         <v>0.2</v>
       </c>
       <c r="D27" t="n">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="E27" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
         <v>0.5</v>
@@ -1401,27 +1383,27 @@
         <v>0.7</v>
       </c>
       <c r="D28" t="n">
-        <v>9.2</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
         <v>1.1</v>
@@ -1430,22 +1412,22 @@
         <v>1.4</v>
       </c>
       <c r="D29" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E29" t="n">
         <v>8.3</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="30">
@@ -1459,27 +1441,27 @@
         <v>109.1</v>
       </c>
       <c r="D30" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E30" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="n">
         <v>85.7</v>
@@ -1488,27 +1470,27 @@
         <v>105.8</v>
       </c>
       <c r="D31" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="E31" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="n">
         <v>86.4</v>
@@ -1517,27 +1499,27 @@
         <v>104.9</v>
       </c>
       <c r="D32" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="E32" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
         <v>89</v>
@@ -1546,22 +1528,22 @@
         <v>103</v>
       </c>
       <c r="D33" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="E33" t="n">
         <v>1.8</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="34">
@@ -1575,27 +1557,27 @@
         <v>92.2</v>
       </c>
       <c r="D34" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="E34" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
       </c>
-      <c r="I34" t="s">
-        <v>13</v>
+      <c r="I34" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
         <v>49.1</v>
@@ -1604,27 +1586,27 @@
         <v>69.4</v>
       </c>
       <c r="D35" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="E35" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
       </c>
-      <c r="I35" t="s">
-        <v>13</v>
+      <c r="I35" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
         <v>66.7</v>
@@ -1633,27 +1615,27 @@
         <v>89</v>
       </c>
       <c r="D36" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E36" t="n">
         <v>2.7</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
       </c>
-      <c r="I36" t="s">
-        <v>13</v>
+      <c r="I36" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
         <v>79.7</v>
@@ -1668,16 +1650,16 @@
         <v>1.7</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
       </c>
-      <c r="I37" t="s">
-        <v>13</v>
+      <c r="I37" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="38">
@@ -1691,27 +1673,27 @@
         <v>12.9</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.2</v>
+        <v>-3.5</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" t="n">
         <v>16.2</v>
@@ -1720,27 +1702,27 @@
         <v>17.4</v>
       </c>
       <c r="D39" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="n">
         <v>24.2</v>
@@ -1749,27 +1731,27 @@
         <v>20.7</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="n">
         <v>11.1</v>
@@ -1781,19 +1763,19 @@
         <v>0.4</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="42">
@@ -1813,21 +1795,21 @@
         <v>3.2</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" t="n">
         <v>2.9</v>
@@ -1842,21 +1824,21 @@
         <v>5.5</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" t="n">
         <v>0.8</v>
@@ -1871,21 +1853,21 @@
         <v>9.7</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="n">
         <v>26.3</v>
@@ -1900,16 +1882,16 @@
         <v>4.2</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="46">
@@ -1923,27 +1905,27 @@
         <v>114</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
       </c>
-      <c r="I46" t="s">
-        <v>13</v>
+      <c r="I46" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
         <v>102.6</v>
@@ -1952,27 +1934,27 @@
         <v>106</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
       </c>
-      <c r="I47" t="s">
-        <v>13</v>
+      <c r="I47" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" t="n">
         <v>111.3</v>
@@ -1981,27 +1963,27 @@
         <v>121</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E48" t="n">
         <v>1.1</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
       </c>
-      <c r="I48" t="s">
-        <v>13</v>
+      <c r="I48" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" t="n">
         <v>118.2</v>
@@ -2010,22 +1992,22 @@
         <v>121</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E49" t="n">
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
         <v>12</v>
       </c>
-      <c r="I49" t="s">
-        <v>13</v>
+      <c r="I49" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="50">
@@ -2039,27 +2021,27 @@
         <v>139.9</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="E50" t="n">
         <v>6.3</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" t="n">
         <v>80.2</v>
@@ -2068,27 +2050,27 @@
         <v>212.3</v>
       </c>
       <c r="D51" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E51" t="n">
         <v>10.3</v>
       </c>
-      <c r="E51" t="n">
-        <v>10</v>
-      </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" t="n">
         <v>79.2</v>
@@ -2097,27 +2079,27 @@
         <v>137.5</v>
       </c>
       <c r="D52" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="E52" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" t="n">
         <v>89.3</v>
@@ -2126,22 +2108,22 @@
         <v>162.7</v>
       </c>
       <c r="D53" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E53" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="54">
@@ -2161,21 +2143,21 @@
         <v>7.5</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" t="n">
         <v>87.1</v>
@@ -2190,21 +2172,21 @@
         <v>2.8</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
-      </c>
-      <c r="I55" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" t="n">
         <v>44.9</v>
@@ -2219,21 +2201,21 @@
         <v>6.8</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" t="n">
         <v>449.2</v>
@@ -2248,16 +2230,16 @@
         <v>4.3</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
-      </c>
-      <c r="I57" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="58">
@@ -2271,27 +2253,27 @@
         <v>56.4</v>
       </c>
       <c r="D58" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="E58" t="n">
-        <v>9.1</v>
+        <v>7.8</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" t="n">
         <v>58.2</v>
@@ -2300,27 +2282,27 @@
         <v>61.7</v>
       </c>
       <c r="D59" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="E59" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s">
-        <v>54</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" t="n">
         <v>63.8</v>
@@ -2332,24 +2314,24 @@
         <v>0.3</v>
       </c>
       <c r="E60" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" t="n">
         <v>74</v>
@@ -2358,22 +2340,22 @@
         <v>76.3</v>
       </c>
       <c r="D61" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s">
-        <v>54</v>
-      </c>
-      <c r="I61" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="62">
@@ -2393,21 +2375,21 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" t="n">
         <v>60.6</v>
@@ -2422,21 +2404,21 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" t="n">
         <v>60.8</v>
@@ -2451,21 +2433,21 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
-      </c>
-      <c r="I64" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" t="n">
         <v>53.7</v>
@@ -2480,16 +2462,16 @@
         <v>0.4</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
-      </c>
-      <c r="I65" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="66">
@@ -2509,21 +2491,21 @@
         <v>0.1</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" t="n">
         <v>7.3</v>
@@ -2538,21 +2520,21 @@
         <v>1.2</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
-      </c>
-      <c r="I67" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" t="n">
         <v>6.1</v>
@@ -2567,21 +2549,21 @@
         <v>0.3</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
-      </c>
-      <c r="I68" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" t="n">
         <v>5.2</v>
@@ -2596,16 +2578,16 @@
         <v>0.2</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
-      </c>
-      <c r="I69" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="70">
@@ -2625,21 +2607,21 @@
         <v>7.8</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G70" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
-      </c>
-      <c r="I70" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" t="n">
         <v>49.2</v>
@@ -2654,21 +2636,21 @@
         <v>1.9</v>
       </c>
       <c r="F71" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G71" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H71" t="s">
-        <v>43</v>
-      </c>
-      <c r="I71" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" t="n">
         <v>25.2</v>
@@ -2683,21 +2665,21 @@
         <v>5.7</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G72" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H72" t="s">
-        <v>43</v>
-      </c>
-      <c r="I72" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73" t="n">
         <v>284.6</v>
@@ -2712,16 +2694,16 @@
         <v>4.2</v>
       </c>
       <c r="F73" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G73" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I73" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="74">
@@ -2735,27 +2717,27 @@
         <v>78</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H74" t="s">
-        <v>63</v>
-      </c>
-      <c r="I74" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75" t="n">
         <v>56</v>
@@ -2764,27 +2746,27 @@
         <v>55.4</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G75" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H75" t="s">
-        <v>63</v>
-      </c>
-      <c r="I75" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76" t="n">
         <v>61.7</v>
@@ -2793,27 +2775,27 @@
         <v>57.3</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H76" t="s">
-        <v>63</v>
-      </c>
-      <c r="I76" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77" t="n">
         <v>46.6</v>
@@ -2825,19 +2807,19 @@
         <v>0.1</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H77" t="s">
-        <v>63</v>
-      </c>
-      <c r="I77" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="78">
@@ -2850,28 +2832,28 @@
       <c r="C78" t="n">
         <v>14.3</v>
       </c>
-      <c r="D78" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E78" t="e">
-        <v>#NUM!</v>
+      <c r="D78" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-5.4</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H78" t="s">
-        <v>67</v>
-      </c>
-      <c r="I78" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79" t="n">
         <v>29.9</v>
@@ -2879,28 +2861,28 @@
       <c r="C79" t="n">
         <v>30.1</v>
       </c>
-      <c r="D79" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E79" t="e">
-        <v>#NUM!</v>
+      <c r="D79" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-5.7</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G79" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>67</v>
-      </c>
-      <c r="I79" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" t="n">
         <v>20.5</v>
@@ -2908,28 +2890,28 @@
       <c r="C80" t="n">
         <v>3.1</v>
       </c>
-      <c r="D80" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E80" t="e">
-        <v>#NUM!</v>
+      <c r="D80" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-6.5</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G80" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H80" t="s">
-        <v>67</v>
-      </c>
-      <c r="I80" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" t="n">
         <v>15.2</v>
@@ -2938,22 +2920,22 @@
         <v>11.3</v>
       </c>
       <c r="D81" t="n">
-        <v>31575.5</v>
+        <v>25897.5</v>
       </c>
       <c r="E81" t="n">
-        <v>3940.9</v>
+        <v>10340.1</v>
       </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G81" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>67</v>
-      </c>
-      <c r="I81" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="82">
@@ -2973,21 +2955,21 @@
         <v>1.7</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83" t="n">
         <v>69.3</v>
@@ -2995,28 +2977,28 @@
       <c r="C83" t="n">
         <v>78</v>
       </c>
-      <c r="D83" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E83" t="e">
-        <v>#NUM!</v>
+      <c r="D83" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" t="n">
         <v>61.4</v>
@@ -3024,28 +3006,28 @@
       <c r="C84" t="n">
         <v>77.1</v>
       </c>
-      <c r="D84" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E84" t="e">
-        <v>#NUM!</v>
+      <c r="D84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.3</v>
       </c>
       <c r="F84" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G84" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" t="n">
         <v>82.9</v>
@@ -3054,22 +3036,22 @@
         <v>85.3</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F85" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G85" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="86">
@@ -3089,21 +3071,21 @@
         <v>2.3</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" t="n">
         <v>44.3</v>
@@ -3118,21 +3100,21 @@
         <v>1.3</v>
       </c>
       <c r="F87" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88" t="n">
         <v>28.3</v>
@@ -3147,21 +3129,21 @@
         <v>1.5</v>
       </c>
       <c r="F88" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G88" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" t="n">
         <v>58.4</v>
@@ -3176,16 +3158,16 @@
         <v>0.6</v>
       </c>
       <c r="F89" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G89" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="90">
@@ -3199,27 +3181,27 @@
         <v>8.7</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E90" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="F90" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G90" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
-      </c>
-      <c r="I90" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91" t="n">
         <v>1.8</v>
@@ -3228,27 +3210,27 @@
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="F91" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G91" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
-      </c>
-      <c r="I91" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92" t="n">
         <v>3.6</v>
@@ -3257,27 +3239,27 @@
         <v>3.9</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G92" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H92" t="s">
-        <v>27</v>
-      </c>
-      <c r="I92" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" t="n">
         <v>2.3</v>
@@ -3286,22 +3268,22 @@
         <v>2.3</v>
       </c>
       <c r="D93" t="n">
-        <v>7759.8</v>
+        <v>5269.3</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F93" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G93" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H93" t="s">
-        <v>27</v>
-      </c>
-      <c r="I93" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="94">
@@ -3315,27 +3297,27 @@
         <v>12.5</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="F94" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G94" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95" t="n">
         <v>29.2</v>
@@ -3344,27 +3326,27 @@
         <v>27.2</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="E95" t="n">
         <v>-0.6</v>
       </c>
       <c r="F95" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" t="n">
         <v>43.8</v>
@@ -3379,21 +3361,21 @@
         <v>-0.3</v>
       </c>
       <c r="F96" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G96" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" t="n">
         <v>35.8</v>
@@ -3408,16 +3390,16 @@
         <v>-0.5</v>
       </c>
       <c r="F97" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G97" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
-      </c>
-      <c r="I97" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="98">
@@ -3431,27 +3413,27 @@
         <v>3.6</v>
       </c>
       <c r="D98" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="E98" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="F98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G98" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H98" t="s">
-        <v>67</v>
-      </c>
-      <c r="I98" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99" t="n">
         <v>9.3</v>
@@ -3463,24 +3445,24 @@
         <v>4.5</v>
       </c>
       <c r="E99" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F99" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G99" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H99" t="s">
-        <v>67</v>
-      </c>
-      <c r="I99" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100" t="n">
         <v>3</v>
@@ -3492,24 +3474,24 @@
         <v>5.9</v>
       </c>
       <c r="E100" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G100" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H100" t="s">
-        <v>67</v>
-      </c>
-      <c r="I100" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" t="n">
         <v>16.1</v>
@@ -3524,16 +3506,16 @@
         <v>3.1</v>
       </c>
       <c r="F101" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G101" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H101" t="s">
-        <v>67</v>
-      </c>
-      <c r="I101" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="102">
@@ -3547,27 +3529,27 @@
         <v>9.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-3.9</v>
+        <v>-4.8</v>
       </c>
       <c r="E102" t="n">
-        <v>-1.9</v>
+        <v>-2.7</v>
       </c>
       <c r="F102" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G102" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
       </c>
-      <c r="I102" t="s">
-        <v>13</v>
+      <c r="I102" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103" t="n">
         <v>26.4</v>
@@ -3576,27 +3558,27 @@
         <v>24.7</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="E103" t="n">
         <v>0.4</v>
       </c>
       <c r="F103" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G103" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H103" t="s">
         <v>12</v>
       </c>
-      <c r="I103" t="s">
-        <v>13</v>
+      <c r="I103" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104" t="n">
         <v>13.2</v>
@@ -3605,27 +3587,27 @@
         <v>9.2</v>
       </c>
       <c r="D104" t="n">
-        <v>-5.1</v>
+        <v>-4.7</v>
       </c>
       <c r="E104" t="n">
-        <v>-6.4</v>
+        <v>-5.6</v>
       </c>
       <c r="F104" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H104" t="s">
         <v>12</v>
       </c>
-      <c r="I104" t="s">
-        <v>13</v>
+      <c r="I104" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105" t="n">
         <v>10.8</v>
@@ -3634,22 +3616,22 @@
         <v>10.2</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="F105" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G105" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
       </c>
-      <c r="I105" t="s">
-        <v>13</v>
+      <c r="I105" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="106">
@@ -3663,27 +3645,27 @@
         <v>1284.2</v>
       </c>
       <c r="D106" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="E106" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F106" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
       </c>
-      <c r="I106" t="s">
-        <v>13</v>
+      <c r="I106" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107" t="n">
         <v>1943.8</v>
@@ -3692,27 +3674,27 @@
         <v>2046</v>
       </c>
       <c r="D107" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F107" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
       </c>
-      <c r="I107" t="s">
-        <v>13</v>
+      <c r="I107" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B108" t="n">
         <v>1097.8</v>
@@ -3724,24 +3706,24 @@
         <v>2.9</v>
       </c>
       <c r="E108" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="F108" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
-      <c r="I108" t="s">
-        <v>13</v>
+      <c r="I108" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" t="n">
         <v>13670.1</v>
@@ -3750,22 +3732,22 @@
         <v>31911.8</v>
       </c>
       <c r="D109" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E109" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F109" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G109" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H109" t="s">
         <v>12</v>
       </c>
-      <c r="I109" t="s">
-        <v>13</v>
+      <c r="I109" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="110">
@@ -3779,27 +3761,27 @@
         <v>12.6</v>
       </c>
       <c r="D110" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.9</v>
+        <v>-3.5</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
-      </c>
-      <c r="I110" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111" t="n">
         <v>17.7</v>
@@ -3808,27 +3790,27 @@
         <v>19.7</v>
       </c>
       <c r="D111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E111" t="n">
         <v>1.9</v>
       </c>
-      <c r="E111" t="n">
-        <v>0.6</v>
-      </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s">
-        <v>19</v>
-      </c>
-      <c r="I111" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B112" t="n">
         <v>23.7</v>
@@ -3837,27 +3819,27 @@
         <v>20</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.8</v>
+        <v>-2.3</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" t="n">
         <v>11.2</v>
@@ -3872,16 +3854,16 @@
         <v>-0.3</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H113" t="s">
-        <v>19</v>
-      </c>
-      <c r="I113" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="114">
@@ -3895,27 +3877,27 @@
         <v>3</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.7</v>
+        <v>-1.6</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G114" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115" t="n">
         <v>3.4</v>
@@ -3924,27 +3906,27 @@
         <v>3.3</v>
       </c>
       <c r="D115" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.9</v>
+        <v>-1.4</v>
       </c>
       <c r="F115" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H115" t="s">
-        <v>19</v>
-      </c>
-      <c r="I115" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" t="n">
         <v>3.5</v>
@@ -3953,27 +3935,27 @@
         <v>3.5</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E116" t="n">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G116" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H116" t="s">
-        <v>19</v>
-      </c>
-      <c r="I116" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117" t="n">
         <v>3.4</v>
@@ -3982,22 +3964,22 @@
         <v>3.3</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G117" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s">
-        <v>19</v>
-      </c>
-      <c r="I117" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="118">
@@ -4010,28 +3992,28 @@
       <c r="C118" t="n">
         <v>32.4</v>
       </c>
-      <c r="D118" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E118" t="e">
-        <v>#NUM!</v>
+      <c r="D118" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.3</v>
       </c>
       <c r="F118" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G118" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s">
-        <v>67</v>
-      </c>
-      <c r="I118" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B119" t="n">
         <v>43.4</v>
@@ -4039,28 +4021,28 @@
       <c r="C119" t="n">
         <v>46.1</v>
       </c>
-      <c r="D119" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E119" t="e">
-        <v>#NUM!</v>
+      <c r="D119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.6</v>
       </c>
       <c r="F119" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G119" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H119" t="s">
-        <v>67</v>
-      </c>
-      <c r="I119" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120" t="n">
         <v>36.8</v>
@@ -4068,28 +4050,28 @@
       <c r="C120" t="n">
         <v>37.8</v>
       </c>
-      <c r="D120" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E120" t="e">
-        <v>#NUM!</v>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G120" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s">
-        <v>67</v>
-      </c>
-      <c r="I120" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B121" t="n">
         <v>39</v>
@@ -4104,16 +4086,16 @@
         <v>-0.4</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G121" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s">
-        <v>67</v>
-      </c>
-      <c r="I121" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
